--- a/CMU FALL 2021/COURSES/DATA INFERENCE/ASSIGNMENTS/ASSIGNMENT 4/data/vehicle_fuel_data.xlsx
+++ b/CMU FALL 2021/COURSES/DATA INFERENCE/ASSIGNMENTS/ASSIGNMENT 4/data/vehicle_fuel_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LESSONS\CODING\PYTHON\PYTHON_FOR_DATA_SCIENCE_ONE\CMU FALL 2021\COURSES\DATA INFERENCE\ASSIGNMENTS\ASSIGNMENT 4\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LESSONS\CODING\PYTHON\ADVANCED PYTHON\FOR_DATA_SCIENCE\python_for_dataScience_one\CMU FALL 2021\COURSES\DATA INFERENCE\ASSIGNMENTS\ASSIGNMENT 4\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DCE3A9B-2DEC-4AE2-B8FF-684B9999823B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB69E32-34AD-455E-8386-9291D9FBE7B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="372" windowWidth="23256" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,10 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>Table 4-9:  Motor Vehicle Fuel Consumption and Travel</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Vehicles registered (thousands)</t>
   </si>
@@ -75,95 +72,7 @@
     <t>Average fuel consumed per vehicle (gallons)</t>
   </si>
   <si>
-    <r>
-      <t>KEY</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>: R = revised.</t>
-    </r>
-  </si>
-  <si>
-    <t>NOTES</t>
-  </si>
-  <si>
-    <t>Motor vehicles, fuel consumption and travel data include light duty vehicles, buses, trucks and motorcycles.</t>
-  </si>
-  <si>
-    <t>Data from 2007 was calculated using a new methodology and data categories of the Highway Statistics series were updated, so the data from 1960-2006 are not comparable. In addition, this edition of table 4-9 is not comparable to editions from 2009 or earlier.</t>
-  </si>
-  <si>
-    <r>
-      <t>See</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>tables 4-11, 4-12, 4-13, 4-14, and 4-15 for individual highway vehicles.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">SOURCES </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1960-93: U.S. Department of Transportation, Federal Highway Administration, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Highway Statistics Summary to 1995</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, table VM-201A, available at http://www.fhwa.dot.gov/policyinformation/statistics.cfm as of Mar. 17, 2020.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1994-2019: U.S. Department of Transportation, Federal Highway Administration, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Highway Statistics</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (Washington, DC: Annual Issues), table VM-1, available at http://www.fhwa.dot.gov/policyinformation/statistics.cfm as of Jan. 7, 2021.</t>
-    </r>
+    <t>Labels</t>
   </si>
 </sst>
 </file>
@@ -180,7 +89,7 @@
     <numFmt numFmtId="170" formatCode="#,##0.0"/>
     <numFmt numFmtId="171" formatCode="\(\R\)\ General"/>
   </numFmts>
-  <fonts count="41">
+  <fonts count="40">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -265,12 +174,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
       <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -770,9 +673,9 @@
   <cellStyleXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="1" applyAlignment="0">
       <alignment horizontal="right" vertical="center"/>
@@ -801,14 +704,14 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0">
       <alignment horizontal="centerContinuous" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="37" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="37" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment horizontal="right"/>
     </xf>
@@ -879,48 +782,48 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="37" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="37" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
@@ -928,47 +831,47 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="37" fontId="40" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="37" fontId="39" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -988,20 +891,20 @@
       <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="170" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="170" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1504,11 +1407,11 @@
   </sheetPr>
   <dimension ref="A1:AK21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="61" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="61" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
@@ -1522,9 +1425,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A1" s="26" t="s">
-        <v>0</v>
-      </c>
+      <c r="A1" s="26"/>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
       <c r="D1" s="26"/>
@@ -1562,7 +1463,9 @@
       <c r="AJ1" s="26"/>
     </row>
     <row r="2" spans="1:37" s="5" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B2" s="2">
         <v>1960</v>
       </c>
@@ -1674,7 +1577,7 @@
     </row>
     <row r="3" spans="1:37" ht="16.5" customHeight="1">
       <c r="A3" s="18" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="14">
         <v>73857.767999999996</v>
@@ -1787,7 +1690,7 @@
     </row>
     <row r="4" spans="1:37" ht="16.5" customHeight="1">
       <c r="A4" s="20" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="15">
         <v>718762</v>
@@ -1900,7 +1803,7 @@
     </row>
     <row r="5" spans="1:37" ht="16.5" customHeight="1">
       <c r="A5" s="20" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="15">
         <v>57879.908000000003</v>
@@ -2013,7 +1916,7 @@
     </row>
     <row r="6" spans="1:37" ht="16.5" customHeight="1">
       <c r="A6" s="20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="16">
         <v>9.7317048627843725</v>
@@ -2126,7 +2029,7 @@
     </row>
     <row r="7" spans="1:37" ht="16.5" customHeight="1">
       <c r="A7" s="20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="16">
         <v>12.418160719951386</v>
@@ -2239,7 +2142,7 @@
     </row>
     <row r="8" spans="1:37" ht="16.5" customHeight="1" thickBot="1">
       <c r="A8" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="24">
         <v>783.66716957923791</v>
@@ -2351,9 +2254,7 @@
       </c>
     </row>
     <row r="9" spans="1:37" s="6" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A9" s="33" t="s">
-        <v>7</v>
-      </c>
+      <c r="A9" s="33"/>
       <c r="B9" s="33"/>
       <c r="C9" s="33"/>
       <c r="D9" s="33"/>
@@ -2417,9 +2318,7 @@
       <c r="AE10" s="7"/>
     </row>
     <row r="11" spans="1:37" s="6" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A11" s="31" t="s">
-        <v>8</v>
-      </c>
+      <c r="A11" s="31"/>
       <c r="B11" s="31"/>
       <c r="C11" s="31"/>
       <c r="D11" s="31"/>
@@ -2451,9 +2350,7 @@
       <c r="AE11" s="7"/>
     </row>
     <row r="12" spans="1:37" s="6" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A12" s="27" t="s">
-        <v>9</v>
-      </c>
+      <c r="A12" s="27"/>
       <c r="B12" s="27"/>
       <c r="C12" s="27"/>
       <c r="D12" s="27"/>
@@ -2480,9 +2377,7 @@
       <c r="AE12" s="7"/>
     </row>
     <row r="13" spans="1:37" s="6" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A13" s="27" t="s">
-        <v>10</v>
-      </c>
+      <c r="A13" s="27"/>
       <c r="B13" s="27"/>
       <c r="C13" s="27"/>
       <c r="D13" s="27"/>
@@ -2509,9 +2404,7 @@
       <c r="AE13" s="7"/>
     </row>
     <row r="14" spans="1:37" s="6" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A14" s="27" t="s">
-        <v>11</v>
-      </c>
+      <c r="A14" s="27"/>
       <c r="B14" s="27"/>
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
@@ -2559,9 +2452,7 @@
       <c r="AE15" s="7"/>
     </row>
     <row r="16" spans="1:37" s="6" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A16" s="29" t="s">
-        <v>12</v>
-      </c>
+      <c r="A16" s="29"/>
       <c r="B16" s="29"/>
       <c r="C16" s="29"/>
       <c r="D16" s="29"/>
@@ -2586,9 +2477,7 @@
       <c r="AC16" s="7"/>
     </row>
     <row r="17" spans="1:17" s="6" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A17" s="28" t="s">
-        <v>13</v>
-      </c>
+      <c r="A17" s="28"/>
       <c r="B17" s="28"/>
       <c r="C17" s="28"/>
       <c r="D17" s="28"/>
@@ -2607,9 +2496,7 @@
       <c r="Q17" s="28"/>
     </row>
     <row r="18" spans="1:17" s="6" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A18" s="27" t="s">
-        <v>14</v>
-      </c>
+      <c r="A18" s="27"/>
       <c r="B18" s="27"/>
       <c r="C18" s="27"/>
       <c r="D18" s="27"/>
